--- a/config/Datas/card.xlsx
+++ b/config/Datas/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot_v4.1.1-stable_mono_win64\projects\CiGA_GJ_2024\config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20775242-DB3F-42BE-B5DD-173BDB73F6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2123CB-7004-470A-B2F9-2CD2743D23C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="3300" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1416" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>上划视频，下划音频，但啥也没有，所以都是退出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeCardBonus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time card bonus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_bonus_card.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -439,6 +451,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,10 +466,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -732,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -780,15 +791,15 @@
       <c r="H1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="15" t="s">
         <v>57</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="3"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="6"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -875,15 +886,15 @@
       <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="16" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="6"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -971,13 +982,13 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E6">
@@ -989,20 +1000,20 @@
       <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E7">
@@ -1014,45 +1025,45 @@
       <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="13" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="13" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E9">
@@ -1061,10 +1072,10 @@
       <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="13" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="10"/>
@@ -1139,106 +1150,129 @@
       <c r="I12">
         <v>4</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="13" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="13" t="s">
         <v>42</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="13" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/config/Datas/card.xlsx
+++ b/config/Datas/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot_v4.1.1-stable_mono_win64\projects\CiGA_GJ_2024\config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2123CB-7004-470A-B2F9-2CD2743D23C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D5E2E-9CF4-4F0C-862C-27C9DF55877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1416" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5532" yWindow="2196" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -278,6 +278,42 @@
   </si>
   <si>
     <t>time_bonus_card.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LineColor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line color</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_color_card.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mysterious</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好难写的效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysterious_card.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahaha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound_card.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -743,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1203,7 @@
         <v>50</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>24</v>
@@ -1273,6 +1309,75 @@
       </c>
       <c r="J17" s="13" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/config/Datas/card.xlsx
+++ b/config/Datas/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot_v4.1.1-stable_mono_win64\projects\CiGA_GJ_2024\config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D5E2E-9CF4-4F0C-862C-27C9DF55877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03F699-28B6-4AEA-9371-6796DDB70E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="2196" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5532" yWindow="1416" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>card_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>event_0_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -137,46 +133,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>start_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiply_2_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>continue_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ThreeRow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>three_row_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RoundThreeRow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -189,14 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>last_bonus_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上划开始，下划退出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>上划设置，下划帮助，没有帮助，只能退出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -205,46 +157,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Default - 无特殊效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum - 下回合多抽牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiply - 下张牌得分翻若干倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duplicate - 复制下一张牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastBonus - 本轮打出的最后一张牌加分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThreeRow - 如果本轮某时连续使用的三张牌效果一样（无论品质），本轮最终得分翻倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RareBonus</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RareBonus - 提升下一回合抽到稀有牌的概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RoundRareBonus</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>rare_bonus_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>base_score</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -261,10 +181,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>va_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>上划视频，下划音频，但啥也没有，所以都是退出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -273,47 +189,218 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>time card bonus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_bonus_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>LineColor</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>line color</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_color_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mysterious</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>好难写的效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysterious_card.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sound</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>hahaha</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound_card.png</t>
+    <t>005.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>008.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始遊戲 / 退出遊戲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_display_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賭博</t>
+  </si>
+  <si>
+    <t>鑄造</t>
+  </si>
+  <si>
+    <t>命運</t>
+  </si>
+  <si>
+    <t>錯亂</t>
+  </si>
+  <si>
+    <t>盜火</t>
+  </si>
+  <si>
+    <t>魔鏡</t>
+  </si>
+  <si>
+    <t>橫財</t>
+  </si>
+  <si>
+    <t>狂宴</t>
+  </si>
+  <si>
+    <t>回魂</t>
+  </si>
+  <si>
+    <t>謝幕</t>
+  </si>
+  <si>
+    <t>default_card_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description_1</t>
+  </si>
+  <si>
+    <t>description_2</t>
+  </si>
+  <si>
+    <t>description_3</t>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*3</t>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*4</t>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*5</t>
+  </si>
+  <si>
+    <t>提升下回合抽到的前5张卡的稀有度1次</t>
+  </si>
+  <si>
+    <t>提升下回合抽到的前5张卡的稀有度2次</t>
+  </si>
+  <si>
+    <t>提升下回合抽到的前5张卡的稀有度3次</t>
+  </si>
+  <si>
+    <t>提升下回合抽到的前5张卡的稀有度4次</t>
+  </si>
+  <si>
+    <t>10s内，展示另一種卡面效果</t>
+  </si>
+  <si>
+    <t>獲得一項隨機！@#￥#！#4</t>
+  </si>
+  <si>
+    <t>获得你使用的下一张卡牌的1张复制，每回合最多生效8次（剩余N次）</t>
+  </si>
+  <si>
+    <t>获得你使用的下一张卡牌的2张复制，每回合最多生效8次（剩余N次）</t>
+  </si>
+  <si>
+    <t>获得你使用的下一张卡牌的3张复制，每回合最多生效8次（剩余N次）</t>
+  </si>
+  <si>
+    <t>下回合额外抽取1张卡牌</t>
+  </si>
+  <si>
+    <t>下回合额外抽取2张卡牌</t>
+  </si>
+  <si>
+    <t>下回合额外抽取3张卡牌</t>
+  </si>
+  <si>
+    <t>下回合额外抽取4张卡牌</t>
+  </si>
+  <si>
+    <t>讓觀衆們爲你歡呼5s</t>
+  </si>
+  <si>
+    <t>3秒内打出的記分牌每張額外計3分</t>
+  </si>
+  <si>
+    <t>3秒内打出的記分牌每張額外計4分</t>
+  </si>
+  <si>
+    <t>3秒内打出的記分牌每張額外計5分</t>
+  </si>
+  <si>
+    <t>3秒内打出的記分牌每張額外計6分</t>
+  </si>
+  <si>
+    <t>本回合最後使用的一張牌額外計10/15/25/40分</t>
+  </si>
+  <si>
+    <t>本回合最後使用的一張牌額外計15分</t>
+  </si>
+  <si>
+    <t>本回合最後使用的一張牌額外計25分</t>
+  </si>
+  <si>
+    <t>本回合最後使用的一張牌額外計40分</t>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一張計分牌分數*2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一張計分牌分數*3</t>
+  </si>
+  <si>
+    <t>下一張計分牌分數*4</t>
+  </si>
+  <si>
+    <t>下一張計分牌分數*5</t>
+  </si>
+  <si>
+    <t>007.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_instant_effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_img</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>002.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>006.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>007.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>009.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +460,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -418,19 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -452,6 +533,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -468,17 +564,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,18 +580,14 @@
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -779,67 +865,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="6"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
+      <c r="I1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -858,8 +960,10 @@
       <c r="AG1"/>
       <c r="AH1"/>
       <c r="AI1"/>
-    </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ1"/>
+      <c r="AK1"/>
+    </row>
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -870,13 +974,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6"/>
-      <c r="O2"/>
-      <c r="P2"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="L2" s="3"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -896,16 +998,18 @@
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
-    </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ2"/>
+      <c r="AK2"/>
+    </row>
+    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
@@ -913,28 +1017,42 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="6"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -953,8 +1071,10 @@
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
-    </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ3"/>
+      <c r="AK3"/>
+    </row>
+    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -965,13 +1085,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="6"/>
-      <c r="O4"/>
-      <c r="P4"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="L4" s="4"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -991,400 +1109,593 @@
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>44</v>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E5">
         <v>-1</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>45</v>
+      <c r="I5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>60</v>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>62</v>
+      <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>46</v>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="L8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="L9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:37" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:37" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="C20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="I20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>74</v>
+      <c r="M20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:Q20">
+    <sortCondition ref="F10:F20"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/Datas/card.xlsx
+++ b/config/Datas/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot_v4.1.1-stable_mono_win64\projects\CiGA_GJ_2024\config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03F699-28B6-4AEA-9371-6796DDB70E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7BC7F2-0DBE-47E6-A78D-E4F3F7E321FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="1416" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2844" yWindow="984" windowWidth="17280" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>##var</t>
   </si>
@@ -149,14 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上划设置，下划帮助，没有帮助，只能退出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一关/回到初始页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RareBonus</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -177,14 +169,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>继续/返回</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上划视频，下划音频，但啥也没有，所以都是退出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TimeCardBonus</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -209,10 +193,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>開始遊戲 / 退出遊戲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>001.tres</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -272,54 +252,12 @@
     <t>description_3</t>
   </si>
   <si>
-    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*3</t>
-  </si>
-  <si>
-    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*4</t>
-  </si>
-  <si>
-    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*5</t>
-  </si>
-  <si>
-    <t>提升下回合抽到的前5张卡的稀有度1次</t>
-  </si>
-  <si>
-    <t>提升下回合抽到的前5张卡的稀有度2次</t>
-  </si>
-  <si>
-    <t>提升下回合抽到的前5张卡的稀有度3次</t>
-  </si>
-  <si>
-    <t>提升下回合抽到的前5张卡的稀有度4次</t>
-  </si>
-  <si>
     <t>10s内，展示另一種卡面效果</t>
   </si>
   <si>
     <t>獲得一項隨機！@#￥#！#4</t>
   </si>
   <si>
-    <t>获得你使用的下一张卡牌的1张复制，每回合最多生效8次（剩余N次）</t>
-  </si>
-  <si>
-    <t>获得你使用的下一张卡牌的2张复制，每回合最多生效8次（剩余N次）</t>
-  </si>
-  <si>
-    <t>获得你使用的下一张卡牌的3张复制，每回合最多生效8次（剩余N次）</t>
-  </si>
-  <si>
-    <t>下回合额外抽取1张卡牌</t>
-  </si>
-  <si>
-    <t>下回合额外抽取2张卡牌</t>
-  </si>
-  <si>
-    <t>下回合额外抽取3张卡牌</t>
-  </si>
-  <si>
-    <t>下回合额外抽取4张卡牌</t>
-  </si>
-  <si>
     <t>讓觀衆們爲你歡呼5s</t>
   </si>
   <si>
@@ -335,80 +273,243 @@
     <t>3秒内打出的記分牌每張額外計6分</t>
   </si>
   <si>
-    <t>本回合最後使用的一張牌額外計10/15/25/40分</t>
-  </si>
-  <si>
-    <t>本回合最後使用的一張牌額外計15分</t>
-  </si>
-  <si>
-    <t>本回合最後使用的一張牌額外計25分</t>
-  </si>
-  <si>
-    <t>本回合最後使用的一張牌額外計40分</t>
-  </si>
-  <si>
-    <t>如果你本回合连续使用了3张同样的牌，本回合最终分数*2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>下一張計分牌分數*3</t>
+  </si>
+  <si>
+    <t>下一張計分牌分數*4</t>
+  </si>
+  <si>
+    <t>下一張計分牌分數*5</t>
+  </si>
+  <si>
+    <t>007.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_instant_effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_img</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>002.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>006.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>007.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>009.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>002.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>009.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3張同样的牌，本回合最终分数*2</t>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3張同样的牌，本回合最终分数*3</t>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3張同样的牌，本回合最终分数*4</t>
+  </si>
+  <si>
+    <t>如果你本回合连续使用了3張同样的牌，本回合最终分数*5</t>
+  </si>
+  <si>
+    <t>提昇下回合抽到的前5張卡的稀有度1次</t>
+  </si>
+  <si>
+    <t>提昇下回合抽到的前5張卡的稀有度2次</t>
+  </si>
+  <si>
+    <t>提昇下回合抽到的前5張卡的稀有度3次</t>
+  </si>
+  <si>
+    <t>提昇下回合抽到的前5張卡的稀有度4次</t>
   </si>
   <si>
     <t>下一張計分牌分數*2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一張計分牌分數*3</t>
-  </si>
-  <si>
-    <t>下一張計分牌分數*4</t>
-  </si>
-  <si>
-    <t>下一張計分牌分數*5</t>
-  </si>
-  <si>
-    <t>007.tres</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_instant_effect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_img</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>001.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>007.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>009.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合额外抽取1張卡牌</t>
+  </si>
+  <si>
+    <t>下回合额外抽取2張卡牌</t>
+  </si>
+  <si>
+    <t>下回合额外抽取3張卡牌</t>
+  </si>
+  <si>
+    <t>下回合额外抽取4張卡牌</t>
+  </si>
+  <si>
+    <t>003.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_description_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上劃以打出卡牌，開始遊戲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下劃以退出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出此牌以继续</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>視頻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音頻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>startcard.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>settingcard.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>playcard.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>004.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>006.tres</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得你使用的下一張卡牌的1张复制，每回合最多生效8次（剩余%N%次）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得你使用的下一張卡牌的2张复制，每回合最多生效8次（剩余%N%次）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得你使用的下一張卡牌的3张复制，每回合最多生效8次（剩余%N%次）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoSetting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioSetting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetFullScreen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetWindow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetSilence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下劃回到初始页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一关？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>或是见好就收……</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetMusic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下劃帮助？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上劃設置！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetHelp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合使用的最后一张卡分數*3</t>
+  </si>
+  <si>
+    <t>本回合使用的最后一张卡分數*4</t>
+  </si>
+  <si>
+    <t>本回合使用的最后一张卡分數*5</t>
+  </si>
+  <si>
+    <t>本回合使用的最后一张卡分數*6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +567,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -558,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -588,6 +697,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -865,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -876,21 +988,21 @@
     <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="10" width="14.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="11" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -901,48 +1013,50 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>98</v>
-      </c>
       <c r="J1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="N1" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1"/>
+        <v>60</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -962,8 +1076,9 @@
       <c r="AI1"/>
       <c r="AJ1"/>
       <c r="AK1"/>
-    </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL1"/>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -974,12 +1089,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="17"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="17"/>
-      <c r="L2" s="3"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
-      <c r="Q2"/>
+      <c r="K2" s="17"/>
+      <c r="M2" s="3"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -1000,8 +1115,9 @@
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
-    </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL2"/>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1014,11 +1130,11 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>12</v>
@@ -1026,19 +1142,19 @@
       <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="14" t="s">
@@ -1053,7 +1169,9 @@
       <c r="Q3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R3"/>
+      <c r="R3" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -1073,8 +1191,9 @@
       <c r="AI3"/>
       <c r="AJ3"/>
       <c r="AK3"/>
-    </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL3"/>
+    </row>
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1085,12 +1204,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="19"/>
-      <c r="L4" s="4"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="5"/>
-      <c r="Q4"/>
+      <c r="K4" s="19"/>
+      <c r="M4" s="4"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="5"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -1111,8 +1230,9 @@
       <c r="AI4"/>
       <c r="AJ4"/>
       <c r="AK4"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
@@ -1120,27 +1240,30 @@
         <v>17</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5">
         <v>-1</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="L5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
@@ -1148,27 +1271,30 @@
         <v>17</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
+        <v>125</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6">
         <v>-1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="H6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
@@ -1176,525 +1302,610 @@
         <v>17</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7">
+        <v>121</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="L7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="J7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="M7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8">
         <v>-1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="L8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="M10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9">
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11">
         <v>-1</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="L9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:37" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:38" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10">
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10">
+      <c r="J12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:37" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="M12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13">
+      <c r="E13" s="11"/>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>54</v>
+      <c r="M13" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>55</v>
+      <c r="E14" s="11"/>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>56</v>
+      <c r="E15" s="11"/>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>57</v>
+      <c r="E16" s="11"/>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17">
+      <c r="E17" s="11"/>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17">
         <v>4</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>58</v>
+      <c r="M17" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="101.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>59</v>
+      <c r="E18" s="11"/>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>60</v>
+      <c r="E19" s="11"/>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20">
+      <c r="E20" s="11"/>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20">
+      <c r="J22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22">
         <v>10</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="M22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="21"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:Q20">
-    <sortCondition ref="F10:F20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:R22">
+    <sortCondition ref="G12:G22"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
